--- a/exports mod and seasons/reaction time/reaction times.xlsx
+++ b/exports mod and seasons/reaction time/reaction times.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P.A. Ruben\Desktop\thesis SEC\1 - SE data\gis.SE.thesis\exports mod and seasons\reaction time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A578752-B69F-48F0-886E-E33DAC5965A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721CCFA6-9EF5-4C41-9159-4F0A074A30BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{B1DB94B7-2836-49F5-9F9B-0182B089D899}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{B1DB94B7-2836-49F5-9F9B-0182B089D899}"/>
   </bookViews>
   <sheets>
     <sheet name="ABA monthly" sheetId="2" r:id="rId1"/>
@@ -1875,7 +1875,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> reaction time (handle method)</a:t>
+              <a:t> reaction time ('@' handle method)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6061,7 +6061,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>yearly comment reaction time, per weekday (handle method)</a:t>
+              <a:t>yearly comment reaction time, per weekday ('@' handle method)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12361,7 +12361,7 @@
     <tableColumn id="1" xr3:uid="{D03ADE04-6B68-4891-886B-F829CF1A71C5}" uniqueName="1" name="year" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{B4ED39B1-1633-4432-AF8B-22592312B9A2}" uniqueName="2" name="month" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{BF7A0AEA-7D8A-40E2-AA50-5741B1F29525}" uniqueName="3" name="count" queryTableFieldId="3"/>
-    <tableColumn id="6" xr3:uid="{F866A82B-7B00-4858-9C40-6478FFE49DAA}" uniqueName="6" name="year_month" queryTableFieldId="6" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{F866A82B-7B00-4858-9C40-6478FFE49DAA}" uniqueName="6" name="year_month" queryTableFieldId="6" dataDxfId="4">
       <calculatedColumnFormula>_xlfn.CONCAT(handle_month[[#This Row],[year]],"-",handle_month[[#This Row],[month]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{73D57F0F-D350-4D7B-B8FA-03ED17B1839F}" uniqueName="4" name="ninetyth_percentile_reaction_time_days" queryTableFieldId="4"/>
@@ -12378,7 +12378,7 @@
     <tableColumn id="1" xr3:uid="{CBAB2E7A-6399-40A0-8391-6ED8EDBEE680}" uniqueName="1" name="year" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{BB596F6F-AC08-4C90-AD05-F2BF1064BA3E}" uniqueName="2" name="month" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{1AD3056B-8F97-42A6-BBA1-7A6B05AE91A1}" uniqueName="3" name="count" queryTableFieldId="3"/>
-    <tableColumn id="6" xr3:uid="{7E55089F-7D2D-48AC-8F87-341C1F02807B}" uniqueName="6" name="year_month" queryTableFieldId="6" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{7E55089F-7D2D-48AC-8F87-341C1F02807B}" uniqueName="6" name="year_month" queryTableFieldId="6" dataDxfId="3">
       <calculatedColumnFormula>_xlfn.CONCAT(qa_month[[#This Row],[year]],"-",qa_month[[#This Row],[month]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{1B0449EE-871A-4702-AC61-A018CCAC009B}" uniqueName="4" name="ninetyth_percentile_reaction_time_days" queryTableFieldId="4"/>
@@ -12740,7 +12740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADABD138-15F0-4237-A38C-CD69DD5424B4}">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView topLeftCell="B102" workbookViewId="0">
+    <sheetView topLeftCell="B104" workbookViewId="0">
       <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
@@ -21282,7 +21282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5184ACF-3C1B-4716-A6DF-337D5AA73A8A}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView topLeftCell="F18" zoomScale="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="96" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -23536,8 +23536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B309BB-8125-44ED-A6C3-F3D0CB3F1997}">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D68" workbookViewId="0">
-      <selection activeCell="D81" sqref="A81:XFD81"/>
+    <sheetView topLeftCell="D68" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
